--- a/exel/TestcaseSignUp.xlsx
+++ b/exel/TestcaseSignUp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NetBeansProjects\KTPM\exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70289CA-C560-4942-ADC5-8552A00DA80A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6F877A-CC4F-4C28-81D8-2D26166D49D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{306379C0-197B-499D-B62A-2EC254EE46D5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="67">
   <si>
     <t>Username</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Ngày sinh</t>
   </si>
   <si>
-    <t>user1</t>
-  </si>
-  <si>
     <t>Kiều Oanh</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>tính cướp sự tồn tại của người khác à</t>
   </si>
   <si>
-    <t>không tên sao đăng nhập</t>
-  </si>
-  <si>
     <t xml:space="preserve">dẹp luôn đi e </t>
   </si>
   <si>
@@ -214,6 +208,33 @@
   </si>
   <si>
     <t>bình thường k ai nhớ tới e hay sao</t>
+  </si>
+  <si>
+    <t>03/13/2000</t>
+  </si>
+  <si>
+    <t>03/13/2002</t>
+  </si>
+  <si>
+    <t>03/13/2003</t>
+  </si>
+  <si>
+    <t>phong2210</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>13579246</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>03/13/2001</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -264,15 +285,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -591,7 +613,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -599,9 +621,9 @@
     <col min="1" max="1" width="14.58203125" customWidth="1"/>
     <col min="2" max="2" width="24.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="24.75" customWidth="1"/>
-    <col min="6" max="6" width="34" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -614,282 +636,285 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1234567</v>
+        <v>61</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="3">
-        <v>1234567</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>53</v>
+      <c r="A3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3">
         <v>1234567</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
         <v>1234567</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
         <v>1234567</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>59</v>
+      <c r="D9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3">
         <v>1234567</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3">
         <v>1234567</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3">
         <v>1234567</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3">
         <v>1234567</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3">
         <v>1234567</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3">
         <v>1234567</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>51</v>
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -897,357 +922,357 @@
         <v>1234567</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3">
         <v>1234567</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3">
         <v>1234567</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3">
         <v>1234567</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3">
         <v>1234567</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3">
         <v>1234567</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3">
         <v>1234567</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3">
         <v>1234567</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3">
         <v>1234567</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3">
         <v>1234567</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3">
         <v>1234567</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="3">
         <v>1234567</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="3">
         <v>1234567</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="3">
         <v>1234567</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3">
         <v>1234567</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3">
         <v>1234567</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{17565937-6652-48A6-8945-8A280645CA04}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{DA64A24C-A313-43A0-A2DB-33F9B53055B7}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{A460F306-EA3A-4054-98BC-78B77E70432C}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{942FB685-9BB3-4CAD-BD18-B83D036DFF0A}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{54968E1F-E15E-472B-99E2-B3183E513D5B}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{EE1BD3C0-B851-4557-9DA4-53A9C8B39133}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{7F96ACBA-BF2C-493C-BE0C-49BFEB79BC59}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{E27722A8-111A-4074-A485-1D8BA22AAFF2}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{741A76D3-BCBC-4B05-A552-47897C46AB54}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{670DBDF0-BE83-4B3C-86BD-FE77E292363A}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{CE22F747-4E83-46CD-968D-DF0E21675CF6}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{BF9C9AC0-030E-43D1-B94D-605F651F13B5}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{EA2CD5B7-3D2F-4EAF-AF2F-A09E45A020CE}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{E57E654C-8A5E-49EA-83F5-DE50E887D2D1}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{9E344AC9-0FA1-4784-8E23-408E67D1179F}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{1F54BEAE-4A67-45A6-8C5D-E47290CD1F79}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{9416918D-D183-43C5-A8A3-02C7C7A2183B}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{6D06572D-7D49-4229-9B34-F0B9D6B9F62E}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{D8FDF0F6-98CF-4582-A111-0845B7D5E7AF}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{0DA3AF52-BA45-4B8F-955F-C063689BBBAD}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{EDA623FC-034A-46C5-9A31-36987A4E020A}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{862123A5-17AB-4B52-81E3-3113B50AE994}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{DD39B4AC-D0BE-486A-9BB3-0723C63F6BBE}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{92F55CBC-7229-46A1-B96B-42C4ABBEEFF4}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{8504E17E-6BAA-4778-8890-A7EB64264F8F}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{7924B953-88D9-413E-8AFF-5749AA1BEF6C}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{C76D778F-6DAB-4C06-AD18-774378B71143}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{C865C125-3EAA-4F12-83B3-CC89622C6988}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{8149538B-25B3-47A1-A7BC-64B39FD1216C}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{596A134E-19B0-4888-8E62-0DF098AD3CEC}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{A460F306-EA3A-4054-98BC-78B77E70432C}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{942FB685-9BB3-4CAD-BD18-B83D036DFF0A}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{54968E1F-E15E-472B-99E2-B3183E513D5B}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{EE1BD3C0-B851-4557-9DA4-53A9C8B39133}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{7F96ACBA-BF2C-493C-BE0C-49BFEB79BC59}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{E27722A8-111A-4074-A485-1D8BA22AAFF2}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{741A76D3-BCBC-4B05-A552-47897C46AB54}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{670DBDF0-BE83-4B3C-86BD-FE77E292363A}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{CE22F747-4E83-46CD-968D-DF0E21675CF6}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{BF9C9AC0-030E-43D1-B94D-605F651F13B5}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{EA2CD5B7-3D2F-4EAF-AF2F-A09E45A020CE}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{E57E654C-8A5E-49EA-83F5-DE50E887D2D1}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{9E344AC9-0FA1-4784-8E23-408E67D1179F}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{1F54BEAE-4A67-45A6-8C5D-E47290CD1F79}"/>
+    <hyperlink ref="D18" r:id="rId16" xr:uid="{9416918D-D183-43C5-A8A3-02C7C7A2183B}"/>
+    <hyperlink ref="D19" r:id="rId17" xr:uid="{6D06572D-7D49-4229-9B34-F0B9D6B9F62E}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{D8FDF0F6-98CF-4582-A111-0845B7D5E7AF}"/>
+    <hyperlink ref="D21" r:id="rId19" xr:uid="{0DA3AF52-BA45-4B8F-955F-C063689BBBAD}"/>
+    <hyperlink ref="D22" r:id="rId20" xr:uid="{EDA623FC-034A-46C5-9A31-36987A4E020A}"/>
+    <hyperlink ref="D23" r:id="rId21" xr:uid="{862123A5-17AB-4B52-81E3-3113B50AE994}"/>
+    <hyperlink ref="D24" r:id="rId22" xr:uid="{DD39B4AC-D0BE-486A-9BB3-0723C63F6BBE}"/>
+    <hyperlink ref="D25" r:id="rId23" xr:uid="{92F55CBC-7229-46A1-B96B-42C4ABBEEFF4}"/>
+    <hyperlink ref="D26" r:id="rId24" xr:uid="{8504E17E-6BAA-4778-8890-A7EB64264F8F}"/>
+    <hyperlink ref="D27" r:id="rId25" xr:uid="{7924B953-88D9-413E-8AFF-5749AA1BEF6C}"/>
+    <hyperlink ref="D28" r:id="rId26" xr:uid="{C76D778F-6DAB-4C06-AD18-774378B71143}"/>
+    <hyperlink ref="D29" r:id="rId27" xr:uid="{C865C125-3EAA-4F12-83B3-CC89622C6988}"/>
+    <hyperlink ref="D30" r:id="rId28" xr:uid="{8149538B-25B3-47A1-A7BC-64B39FD1216C}"/>
+    <hyperlink ref="D31" r:id="rId29" xr:uid="{596A134E-19B0-4888-8E62-0DF098AD3CEC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
--- a/exel/TestcaseSignUp.xlsx
+++ b/exel/TestcaseSignUp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NetBeansProjects\KTPM\exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6F877A-CC4F-4C28-81D8-2D26166D49D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF75E45E-00DD-4981-A004-40DE21C9FE7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{306379C0-197B-499D-B62A-2EC254EE46D5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="69">
   <si>
     <t>Username</t>
   </si>
@@ -69,9 +69,6 @@
     <t>user201</t>
   </si>
   <si>
-    <t>user202</t>
-  </si>
-  <si>
     <t>user203</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>pass k đủ kí tự</t>
   </si>
   <si>
-    <t>adfghjkfghjkfgh1234567</t>
-  </si>
-  <si>
     <t>Kiều Oanh1</t>
   </si>
   <si>
@@ -235,6 +229,18 @@
   </si>
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>qưertyuiopasdfghjklzxcvbnm</t>
+  </si>
+  <si>
+    <t>1234567890123456</t>
+  </si>
+  <si>
+    <t>Kiều Oanh qưertyuiopasdfghjklzxc</t>
+  </si>
+  <si>
+    <t>qwertyuiopasdfghjklzxcvbnmqwertyuiopasdfghjklzxcvbnm@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -613,7 +619,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E2:E3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -648,11 +654,11 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -660,30 +666,30 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -697,10 +703,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -717,41 +723,41 @@
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
         <v>1234567</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>6</v>
@@ -760,18 +766,18 @@
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
         <v>1234567</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
@@ -780,12 +786,12 @@
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
         <v>1234567</v>
@@ -797,12 +803,12 @@
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3">
         <v>1234567</v>
@@ -814,15 +820,15 @@
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
         <v>1234567</v>
@@ -834,15 +840,15 @@
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3">
         <v>1234567</v>
@@ -854,15 +860,15 @@
         <v>6</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3">
         <v>1234567</v>
@@ -874,15 +880,15 @@
         <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3">
         <v>1234567</v>
@@ -894,12 +900,12 @@
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3">
         <v>1234567</v>
@@ -914,7 +920,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -931,12 +937,12 @@
         <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3">
         <v>1234567</v>
@@ -951,12 +957,12 @@
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3">
         <v>1234567</v>
@@ -971,12 +977,12 @@
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="3">
         <v>1234567</v>
@@ -991,12 +997,12 @@
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="3">
         <v>1234567</v>
@@ -1011,12 +1017,12 @@
         <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="3">
         <v>1234567</v>
@@ -1031,12 +1037,12 @@
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="3">
         <v>1234567</v>
@@ -1051,12 +1057,12 @@
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="3">
         <v>1234567</v>
@@ -1071,12 +1077,12 @@
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="3">
         <v>1234567</v>
@@ -1091,12 +1097,12 @@
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="3">
         <v>1234567</v>
@@ -1111,12 +1117,12 @@
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="3">
         <v>1234567</v>
@@ -1131,12 +1137,12 @@
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="3">
         <v>1234567</v>
@@ -1151,12 +1157,12 @@
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="3">
         <v>1234567</v>
@@ -1171,12 +1177,12 @@
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="3">
         <v>1234567</v>
@@ -1191,12 +1197,12 @@
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="3">
         <v>1234567</v>
@@ -1211,12 +1217,12 @@
         <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="3">
         <v>1234567</v>
@@ -1231,12 +1237,12 @@
         <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
